--- a/data/hotels_by_city/Dallas/Dallas_shard_749.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_749.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,201 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r553854920-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>56852</t>
+  </si>
+  <si>
+    <t>229603</t>
+  </si>
+  <si>
+    <t>553854920</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r542808849-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>542808849</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>No issues or surprises. Good value overall.</t>
+  </si>
+  <si>
+    <t>The facilities seemed a bit dated, but overall the place felt comfortable and secure. We would certainly consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Renu P, General Manager at Super 8 Waxahachie TX, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>The facilities seemed a bit dated, but overall the place felt comfortable and secure. We would certainly consider staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r538788883-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>538788883</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Renu P, General Manager at Super 8 Waxahachie TX, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r507408557-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>507408557</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Didn't feel safe at all.</t>
+  </si>
+  <si>
+    <t>Sketchy part of town, possible drug deals going down in the parking lot.  We were nervous but thankful that our tool boxes on the truck didn't get broke into.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Sketchy part of town, possible drug deals going down in the parking lot.  We were nervous but thankful that our tool boxes on the truck didn't get broke into.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r493410948-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>493410948</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>3 nights- INCREDIBLE stay!!!</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here for three nights, and we had an incredible stay!! The room was so clean. Customer service was excellent. The doors are inside, which made us feel safer. The pool was clean, although we didn't use it. There's not a big breakfast selection but will definitely get you through if you're not a big breakfast eater. Overall, a wonderful experience!!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r492490559-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>492490559</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>There is obviously a reason this hotel is cheaper than the rest. There was no cover on the toilet, the outlets were not secured to the wall. The room felt and smelled dirty. We actually checked the mattress for bugs before sitting on the bed. Continental breakfast? How about your options are a bowl of cereal or some toast. The only reason we didn't leave was because it was late and we had to be up early. Next time, and every time, I will pay the extra $25 for a better hotel that actually tries to be a hotel instead of what ever this was. If I was corporate, I would take a trip to see what my name (Super 8) is on and have it fixed or removed immediately. Im not typing this for a free night stay or anything else, I am typing this because I want others to know before putting their hard earned money down for nothing but disappointment. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>There is obviously a reason this hotel is cheaper than the rest. There was no cover on the toilet, the outlets were not secured to the wall. The room felt and smelled dirty. We actually checked the mattress for bugs before sitting on the bed. Continental breakfast? How about your options are a bowl of cereal or some toast. The only reason we didn't leave was because it was late and we had to be up early. Next time, and every time, I will pay the extra $25 for a better hotel that actually tries to be a hotel instead of what ever this was. If I was corporate, I would take a trip to see what my name (Super 8) is on and have it fixed or removed immediately. Im not typing this for a free night stay or anything else, I am typing this because I want others to know before putting their hard earned money down for nothing but disappointment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r482786248-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>482786248</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r481012314-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>481012314</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>NOT GOING BACK!!</t>
+  </si>
+  <si>
+    <t>Breakfast was awful. Pool way to small n freezing cold. I was over charged ten bucks. Went they booking.com the total was to be 82 including tax as we were leaving they gave us our bill and it was 92. Shady!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Breakfast was awful. Pool way to small n freezing cold. I was over charged ten bucks. Went they booking.com the total was to be 82 including tax as we were leaving they gave us our bill and it was 92. Shady!!!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +840,556 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_749.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_749.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>tomcW5164ZY</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>williamfV8267SR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r542808849-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>The facilities seemed a bit dated, but overall the place felt comfortable and secure. We would certainly consider staying here again.More</t>
   </si>
   <si>
+    <t>ronaldwW6940XU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r538788883-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>480lyndees</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r507408557-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>Sketchy part of town, possible drug deals going down in the parking lot.  We were nervous but thankful that our tool boxes on the truck didn't get broke into.  More</t>
   </si>
   <si>
+    <t>692monat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r493410948-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>mattwB9734HI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r492490559-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>There is obviously a reason this hotel is cheaper than the rest. There was no cover on the toilet, the outlets were not secured to the wall. The room felt and smelled dirty. We actually checked the mattress for bugs before sitting on the bed. Continental breakfast? How about your options are a bowl of cereal or some toast. The only reason we didn't leave was because it was late and we had to be up early. Next time, and every time, I will pay the extra $25 for a better hotel that actually tries to be a hotel instead of what ever this was. If I was corporate, I would take a trip to see what my name (Super 8) is on and have it fixed or removed immediately. Im not typing this for a free night stay or anything else, I am typing this because I want others to know before putting their hard earned money down for nothing but disappointment. More</t>
   </si>
   <si>
+    <t>Donna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r482786248-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -316,6 +337,9 @@
   </si>
   <si>
     <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>shannono329</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r481012314-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
@@ -844,28 +868,32 @@
       <c r="A2" t="n">
         <v>38480</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>179536</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -873,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -897,51 +925,52 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38480</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>179537</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -963,54 +992,58 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38480</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>179538</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1032,56 +1065,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38480</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1103,56 +1140,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38480</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>179540</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1176,50 +1217,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38480</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>179541</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1241,54 +1286,58 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38480</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>10184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1310,56 +1359,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38480</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>179542</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1381,13 +1434,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_749.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_749.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>STR#</t>
   </si>
@@ -147,13 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>tomcW5164ZY</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r553854920-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r608211962-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>56852</t>
@@ -162,6 +159,132 @@
     <t>229603</t>
   </si>
   <si>
+    <t>608211962</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Love this place!</t>
+  </si>
+  <si>
+    <t>This hotel has been newly renovated and is now 100% nonsmoking!The owners and staff are exceptional! The rooms are super clean and the new mattresses are extremely comfortable. The new paint scheme, bedding, drapes, and additional features that have been added throughout the rooms certainly add a nice touch. The lighted mirror above the vanity is my absolute favorite addition. I’ve never seen this in any other hotel before now. All rooms also have new microwaves and micro fridges. There are multiple outlets and USB ports throughout the room. My husband and I have several electronic devices each and we were able to charge all of them at once, with outlets still not being used.   The hotel offers a continental breakfast consisting of cold cereals, toast, waffles, fruit, coffee,&amp; juices. There is an outdoor pool for enjoyment on a hot day with a designated smoking area outside of the pool gate. All in all, this is a wonderful hotel! I would definitely recommend checking it out if you happen to be in the area.Bryan &amp; Connie LambertMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Renu P, Manager at Super 8 by Wyndham Waxahachie TX, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>This hotel has been newly renovated and is now 100% nonsmoking!The owners and staff are exceptional! The rooms are super clean and the new mattresses are extremely comfortable. The new paint scheme, bedding, drapes, and additional features that have been added throughout the rooms certainly add a nice touch. The lighted mirror above the vanity is my absolute favorite addition. I’ve never seen this in any other hotel before now. All rooms also have new microwaves and micro fridges. There are multiple outlets and USB ports throughout the room. My husband and I have several electronic devices each and we were able to charge all of them at once, with outlets still not being used.   The hotel offers a continental breakfast consisting of cold cereals, toast, waffles, fruit, coffee,&amp; juices. There is an outdoor pool for enjoyment on a hot day with a designated smoking area outside of the pool gate. All in all, this is a wonderful hotel! I would definitely recommend checking it out if you happen to be in the area.Bryan &amp; Connie LambertMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r595419107-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>595419107</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>PDR Tech</t>
+  </si>
+  <si>
+    <t>I found Super 8 motel very good location , everything is close by  employees are super friendly , rooms are very clean and newly renovated , very nice rooms!! they have everything I was looking for , outside pool , plus continental breakfast , most important very good hospitality . the management make me an my wife feel at home !!!We are extremely satisfied  :))We are staying for another 2 weeks!! we are glad we choose Super8 !!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Renu P, Manager at Super 8 by Wyndham Waxahachie TX, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>I found Super 8 motel very good location , everything is close by  employees are super friendly , rooms are very clean and newly renovated , very nice rooms!! they have everything I was looking for , outside pool , plus continental breakfast , most important very good hospitality . the management make me an my wife feel at home !!!We are extremely satisfied  :))We are staying for another 2 weeks!! we are glad we choose Super8 !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r594082792-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>594082792</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Super 8 - Waxahachie Texas</t>
+  </si>
+  <si>
+    <t>Overall, very pleased.  From initial call to make reservation, to actual check in, duration of stay, and check out process.  Consistency in meeting staff who are professional, courteous, &amp; friendly.  Very pleased with the renovated guest room - clean, modern, and well attended to.  Super 8 - Waxahachie, will be my first choice, when I make another trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Overall, very pleased.  From initial call to make reservation, to actual check in, duration of stay, and check out process.  Consistency in meeting staff who are professional, courteous, &amp; friendly.  Very pleased with the renovated guest room - clean, modern, and well attended to.  Super 8 - Waxahachie, will be my first choice, when I make another trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r586018887-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>586018887</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Excellent Visit</t>
+  </si>
+  <si>
+    <t>We spent  four nights at this hotel and found the experience most refreshing.  The room had been recently renovated.  The staff was very friendly and accommodating.There is road construction on I35 in front of this hotel, but that was only a minor inconvenience. Overall, a most pleasant experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r569121712-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>569121712</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Nice Super 8 motel</t>
+  </si>
+  <si>
+    <t>A great place to stay over night and staff was friendly and kind.   There is construction on the expressway but it was not difficult to find the Super 8 motel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Renu P, General Manager at Super 8 by Wyndham Waxahachie TX, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>A great place to stay over night and staff was friendly and kind.   There is construction on the expressway but it was not difficult to find the Super 8 motel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r553854920-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
     <t>553854920</t>
   </si>
   <si>
@@ -171,13 +294,7 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>williamfV8267SR</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r542808849-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r542808849-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>542808849</t>
@@ -195,10 +312,7 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Renu P, General Manager at Super 8 Waxahachie TX, responded to this reviewResponded November 24, 2017</t>
+    <t>Renu P, General Manager at Super 8 by Wyndham Waxahachie TX, responded to this reviewResponded November 24, 2017</t>
   </si>
   <si>
     <t>Responded November 24, 2017</t>
@@ -207,10 +321,7 @@
     <t>The facilities seemed a bit dated, but overall the place felt comfortable and secure. We would certainly consider staying here again.More</t>
   </si>
   <si>
-    <t>ronaldwW6940XU</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r538788883-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r538788883-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>538788883</t>
@@ -225,10 +336,7 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Renu P, General Manager at Super 8 Waxahachie TX, responded to this reviewResponded November 7, 2017</t>
+    <t>Renu P, General Manager at Super 8 by Wyndham Waxahachie TX, responded to this reviewResponded November 7, 2017</t>
   </si>
   <si>
     <t>Responded November 7, 2017</t>
@@ -237,10 +345,43 @@
     <t>More</t>
   </si>
   <si>
-    <t>480lyndees</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r507408557-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r533863201-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>533863201</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>$30/night experience for $89</t>
+  </si>
+  <si>
+    <t>Looks like super 8 bought out a low rent cheap motel. Double queen smoking room 222. One headboard had been ripped off the wall with half the bolts ripped out with it, the other half had a strip of back board. The carpet was stained and so dirty it turned our feet black. It had 2 chairs that were so dirty we had to put towels down before sitting on them. Breakfast was cold cereal or eggo type waffles. Staff was nice bed was comfortable. I'm a truck driver, pull a flatbed so I'm used to dirt. I've stayed at plenty of hotels/motels across this beautiful country. Had I paid $30, I would have gotten what I paid for (no complaints). But a Super 8 for $89/Sat $69/Sun, wish I booked at the Motel 6 next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Looks like super 8 bought out a low rent cheap motel. Double queen smoking room 222. One headboard had been ripped off the wall with half the bolts ripped out with it, the other half had a strip of back board. The carpet was stained and so dirty it turned our feet black. It had 2 chairs that were so dirty we had to put towels down before sitting on them. Breakfast was cold cereal or eggo type waffles. Staff was nice bed was comfortable. I'm a truck driver, pull a flatbed so I'm used to dirt. I've stayed at plenty of hotels/motels across this beautiful country. Had I paid $30, I would have gotten what I paid for (no complaints). But a Super 8 for $89/Sat $69/Sun, wish I booked at the Motel 6 next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r508141661-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>508141661</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r507408557-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>507408557</t>
@@ -255,9 +396,6 @@
     <t>Sketchy part of town, possible drug deals going down in the parking lot.  We were nervous but thankful that our tool boxes on the truck didn't get broke into.  MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded August 12, 2017</t>
   </si>
   <si>
@@ -267,10 +405,7 @@
     <t>Sketchy part of town, possible drug deals going down in the parking lot.  We were nervous but thankful that our tool boxes on the truck didn't get broke into.  More</t>
   </si>
   <si>
-    <t>692monat</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r493410948-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r493410948-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>493410948</t>
@@ -288,10 +423,7 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>mattwB9734HI</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r492490559-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r492490559-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>492490559</t>
@@ -300,25 +432,55 @@
     <t>06/12/2017</t>
   </si>
   <si>
-    <t>Never Again</t>
-  </si>
-  <si>
-    <t>There is obviously a reason this hotel is cheaper than the rest. There was no cover on the toilet, the outlets were not secured to the wall. The room felt and smelled dirty. We actually checked the mattress for bugs before sitting on the bed. Continental breakfast? How about your options are a bowl of cereal or some toast. The only reason we didn't leave was because it was late and we had to be up early. Next time, and every time, I will pay the extra $25 for a better hotel that actually tries to be a hotel instead of what ever this was. If I was corporate, I would take a trip to see what my name (Super 8) is on and have it fixed or removed immediately. Im not typing this for a free night stay or anything else, I am typing this because I want others to know before putting their hard earned money down for nothing but disappointment. MoreShow less</t>
-  </si>
-  <si>
     <t>Management response:Responded June 14, 2017</t>
   </si>
   <si>
     <t>Responded June 14, 2017</t>
   </si>
   <si>
-    <t>There is obviously a reason this hotel is cheaper than the rest. There was no cover on the toilet, the outlets were not secured to the wall. The room felt and smelled dirty. We actually checked the mattress for bugs before sitting on the bed. Continental breakfast? How about your options are a bowl of cereal or some toast. The only reason we didn't leave was because it was late and we had to be up early. Next time, and every time, I will pay the extra $25 for a better hotel that actually tries to be a hotel instead of what ever this was. If I was corporate, I would take a trip to see what my name (Super 8) is on and have it fixed or removed immediately. Im not typing this for a free night stay or anything else, I am typing this because I want others to know before putting their hard earned money down for nothing but disappointment. More</t>
-  </si>
-  <si>
-    <t>Donna B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r482786248-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r492158115-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>492158115</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful </t>
+  </si>
+  <si>
+    <t>Front counter person was friendly. Definite odor of marijuana in hallway. Carpet was dirty/dusty. Bed linens were dated. Pillows had smoke odor (non-smoking room). Noisy fan in bathroom. Woken up twice overnight by the 'party' in the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Front counter person was friendly. Definite odor of marijuana in hallway. Carpet was dirty/dusty. Bed linens were dated. Pillows had smoke odor (non-smoking room). Noisy fan in bathroom. Woken up twice overnight by the 'party' in the hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r489209128-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>489209128</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Superb stay</t>
+  </si>
+  <si>
+    <t>Room was extremely clean, bed was comfortable, bathroom was sparkling, customer service was welcoming, accessible from the highway but quite within the hotel but what the best is..... I left an item in the room upon check out and didn't realize it till I over 100 miles away. I called and sure enough they had it and are mailing it to me. I would recommend this location to anyone.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r482786248-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>482786248</t>
@@ -339,10 +501,7 @@
     <t>Responded May 17, 2017</t>
   </si>
   <si>
-    <t>shannono329</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r481012314-Super_8_Waxahachie_TX-Waxahachie_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d229603-r481012314-Super_8_by_Wyndham_Waxahachie_TX-Waxahachie_Texas.html</t>
   </si>
   <si>
     <t>481012314</t>
@@ -868,207 +1027,190 @@
       <c r="A2" t="n">
         <v>38480</v>
       </c>
-      <c r="B2" t="n">
-        <v>179536</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38480</v>
       </c>
-      <c r="B3" t="n">
-        <v>179537</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38480</v>
       </c>
-      <c r="B4" t="n">
-        <v>179538</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="s">
         <v>72</v>
@@ -1078,122 +1220,104 @@
       <c r="A5" t="n">
         <v>38480</v>
       </c>
-      <c r="B5" t="n">
-        <v>179539</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X5" t="s">
-        <v>81</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38480</v>
       </c>
-      <c r="B6" t="n">
-        <v>179540</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1214,142 +1338,130 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38480</v>
       </c>
-      <c r="B7" t="n">
-        <v>179541</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>96</v>
-      </c>
-      <c r="X7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>98</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38480</v>
       </c>
-      <c r="B8" t="n">
-        <v>10184</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1359,60 +1471,54 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38480</v>
       </c>
-      <c r="B9" t="n">
-        <v>179542</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1421,10 +1527,10 @@
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1434,13 +1540,624 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c r="X9" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
         <v>114</v>
       </c>
-      <c r="Y9" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38480</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
